--- a/1º SEMESTRE/AED/TA1/Gráficos/SOL1.xlsx
+++ b/1º SEMESTRE/AED/TA1/Gráficos/SOL1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaog\OneDrive - Universidade de Aveiro\Desktop\UA\2ºANO-LECI\1º SEMESTRE\AED\TA1\Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8E578D-C0AA-42A3-9E1F-0A2EEADBE266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBABF2B9-9912-4D3C-AE7E-0746854A4279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA6D94F3-8C0C-44AA-A718-F464FB24BF06}"/>
   </bookViews>
@@ -3524,8 +3524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433B8AFF-ECD7-47BE-9396-E1BDBF2F9C95}">
   <dimension ref="A2:AZ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ18" sqref="AQ18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
